--- a/docentes.xlsx
+++ b/docentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROYECTO\proyecto registro de asistencia profesores\sistema de registro de docentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C979C9-F88D-440F-B45D-921F5361EA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7842D971-E598-4DFD-A8AA-572F2111866A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="1620" windowWidth="9600" windowHeight="6348" xr2:uid="{17ADF0F8-8A5D-48BE-B324-6C50873EB072}"/>
+    <workbookView xWindow="9336" yWindow="2316" windowWidth="9600" windowHeight="6348" xr2:uid="{17ADF0F8-8A5D-48BE-B324-6C50873EB072}"/>
   </bookViews>
   <sheets>
     <sheet name="Docentes" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="135">
   <si>
     <t>Nº</t>
   </si>
@@ -378,6 +378,69 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>ING</t>
+  </si>
+  <si>
+    <t>YUJRA</t>
+  </si>
+  <si>
+    <t>ANGULO</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>1265484 LP</t>
+  </si>
+  <si>
+    <t>CALCULO II</t>
+  </si>
+  <si>
+    <t>OCTAVO SEMESTRE</t>
+  </si>
+  <si>
+    <t>LIC</t>
+  </si>
+  <si>
+    <t>QUELCA</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>1234564 PT</t>
+  </si>
+  <si>
+    <t>CIRCUITOS III</t>
+  </si>
+  <si>
+    <t>CUARTO SEMESTRE</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>GRNL</t>
+  </si>
+  <si>
+    <t>QUISPE</t>
+  </si>
+  <si>
+    <t>MAMANI</t>
+  </si>
+  <si>
+    <t>ROCIO</t>
+  </si>
+  <si>
+    <t>1265465 LP</t>
+  </si>
+  <si>
+    <t>VARIABLE COMPLEJA I</t>
+  </si>
+  <si>
+    <t>QUINTO SEMESTRE</t>
   </si>
 </sst>
 </file>
@@ -763,7 +826,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7986363B-A242-46A3-A6B0-70970E6258E2}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -1446,6 +1509,93 @@
         <v>113</v>
       </c>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
